--- a/pred_ohlcv/54_21/2020-01-15 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 BCH ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>-445.50162947</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-452.83462947</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-514.29242816</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-452.04072685</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-451.92262685</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-446.68452685</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-445.23002685</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-368.13062685</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-419.46582685</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-441.15732685</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-439.14202685</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-335.2136707300001</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-335.6727707300001</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-335.6579869700001</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-290.2474869700001</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-271.8334869700001</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-271.8394869700001</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-269.51888697</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-267.92558697</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-267.92558697</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-267.92558697</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-267.92558697</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-268.59388697</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-269.59388697</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-270.09388697</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-270.09388697</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-393.9702120000001</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-339.6141120000001</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-346.5194120000001</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-342.5758120000001</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-340.4988120000001</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-439.4936120000001</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-472.8964120000001</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-471.2643120000001</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-470.7643120000001</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-471.2643120000001</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-649.368012</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-555.987212</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-555.987212</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-550.969012</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-553.749012</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-553.749012</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-553.749012</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-553.749012</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-542.7057119999999</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-508.029812</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-449.268812</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-381.5572119999999</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-381.0242119999999</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-391.0242119999999</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-385.3542119999999</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-385.3542119999999</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-386.3031119999999</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-386.3031119999999</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-386.9574119999999</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-406.8466119999999</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-407.1466119999999</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-407.0222119999999</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-405.3578786699999</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-405.3578786699999</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-406.01267867</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-406.01267867</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-406.01267867</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-471.04998256</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-471.04998256</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-474.3824158900001</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-477.4404158900001</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-479.1827158900001</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-547.6162975800002</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-547.6162975800002</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-673.1548975800001</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-610.1831975800001</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-343.7111975800001</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>5579.766423480008</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>6068.664146020008</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>6599.293886940008</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>6882.997095810008</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>6672.245670450007</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>6360.827074390008</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>6557.119389510008</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>6676.744689510007</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>6768.665489510007</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>6903.487310360008</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>7057.991510360008</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>7455.207206880008</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>7675.511221950008</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>8140.841583510008</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>7984.253171570008</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>8205.374371570007</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>8077.353754180008</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>8240.197354180007</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>8514.335555250007</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>8414.381267920007</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>8414.381267920007</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>8414.381267920007</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>8275.673967920007</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>8110.301224750007</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>7996.772524750008</v>
       </c>
       <c r="H1000">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>7583.423424750007</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>7488.340265370007</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>7457.067765370007</v>
       </c>
       <c r="H1003">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>7476.688165370007</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>7476.688165370007</v>
       </c>
       <c r="H1005">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>7476.688165370007</v>
       </c>
       <c r="H1006">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>7038.670965370006</v>
       </c>
       <c r="H1007">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>7093.769565370007</v>
       </c>
       <c r="H1008">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>7058.142076960006</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>7208.022159960006</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>7347.395359960006</v>
       </c>
       <c r="H1011">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>7374.255059960006</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>7374.255059960006</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>7208.378159960006</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>7263.403260440006</v>
       </c>
       <c r="H1015">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>7330.632368600007</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>7317.921811280007</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>7343.578282180008</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>7343.578282180008</v>
       </c>
       <c r="H1020">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>7362.841082180008</v>
       </c>
       <c r="H1021">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>7362.841082180008</v>
       </c>
       <c r="H1022">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>7505.693882180008</v>
       </c>
       <c r="H1023">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>10750.55168529001</v>
       </c>
       <c r="H1052">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>11054.76200314001</v>
       </c>
       <c r="H1053">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-15 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 BCH ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>-368.13062685</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-419.46582685</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-441.15732685</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-439.14202685</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-314.68517848</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-328.3537784800001</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-327.3537784800001</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-327.3359784800001</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-326.9511784800001</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-336.4621784800001</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-393.9702120000001</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-339.6141120000001</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-346.5194120000001</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-342.5758120000001</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-340.4988120000001</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-439.4936120000001</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-472.8964120000001</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-471.2643120000001</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-493.1643120000001</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-649.3330120000001</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-648.872012</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-573.0282120000001</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-542.380412</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-508.029812</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-406.01267867</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-406.01267867</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-475.63928256</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-492.44198256</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-474.3824158900001</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-477.4404158900001</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-479.1827158900001</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-447.1464158899999</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-536.6535158899999</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-495.2486158899999</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-510.9716158899999</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-510.8035158899999</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-525.6683158899999</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-579.6262975800001</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-547.6162975800002</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-547.6162975800002</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-673.1548975800001</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-610.1831975800001</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-343.7111975800001</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>5579.766423480008</v>
       </c>
       <c r="H976">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>6068.664146020008</v>
       </c>
       <c r="H977">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>6599.293886940008</v>
       </c>
       <c r="H978">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>6882.997095810008</v>
       </c>
       <c r="H979">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>6672.245670450007</v>
       </c>
       <c r="H980">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>6360.827074390008</v>
       </c>
       <c r="H981">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>6557.119389510008</v>
       </c>
       <c r="H982">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>6676.744689510007</v>
       </c>
       <c r="H983">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>6768.665489510007</v>
       </c>
       <c r="H984">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>6903.487310360008</v>
       </c>
       <c r="H985">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>7057.991510360008</v>
       </c>
       <c r="H986">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>7455.207206880008</v>
       </c>
       <c r="H987">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>7675.511221950008</v>
       </c>
       <c r="H988">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>8140.841583510008</v>
       </c>
       <c r="H989">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>7984.253171570008</v>
       </c>
       <c r="H990">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>8205.374371570007</v>
       </c>
       <c r="H991">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>8077.353754180008</v>
       </c>
       <c r="H992">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>8240.197354180007</v>
       </c>
       <c r="H993">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>8514.335555250007</v>
       </c>
       <c r="H994">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>8414.381267920007</v>
       </c>
       <c r="H995">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>8414.381267920007</v>
       </c>
       <c r="H996">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>8414.381267920007</v>
       </c>
       <c r="H997">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>8275.673967920007</v>
       </c>
       <c r="H998">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>8110.301224750007</v>
       </c>
       <c r="H999">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>7996.772524750008</v>
       </c>
       <c r="H1000">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>7583.423424750007</v>
       </c>
       <c r="H1001">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>7488.340265370007</v>
       </c>
       <c r="H1002">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>7457.067765370007</v>
       </c>
       <c r="H1003">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>7476.688165370007</v>
       </c>
       <c r="H1004">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>7476.688165370007</v>
       </c>
       <c r="H1005">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>7476.688165370007</v>
       </c>
       <c r="H1006">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>7038.670965370006</v>
       </c>
       <c r="H1007">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>7093.769565370007</v>
       </c>
       <c r="H1008">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>7058.142076960006</v>
       </c>
       <c r="H1009">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>7208.022159960006</v>
       </c>
       <c r="H1010">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>7347.395359960006</v>
       </c>
       <c r="H1011">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>7374.255059960006</v>
       </c>
       <c r="H1012">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>7374.255059960006</v>
       </c>
       <c r="H1013">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>7208.378159960006</v>
       </c>
       <c r="H1014">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>7263.403260440006</v>
       </c>
       <c r="H1015">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>7330.632368600007</v>
       </c>
       <c r="H1017">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>7317.921811280007</v>
       </c>
       <c r="H1018">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>7343.578282180008</v>
       </c>
       <c r="H1019">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>7343.578282180008</v>
       </c>
       <c r="H1020">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>7362.841082180008</v>
       </c>
       <c r="H1021">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>7362.841082180008</v>
       </c>
       <c r="H1022">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>7505.693882180008</v>
       </c>
       <c r="H1023">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>11393.24501211001</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>10750.55168529001</v>
       </c>
       <c r="H1052">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>11054.76200314001</v>
       </c>
       <c r="H1053">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
